--- a/06-03-2023/data/output/xlsx/sample_0/category__3.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="214">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,187 +58,466 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10</t>
   </si>
   <si>
     <t>num_of_decimals__20</t>
@@ -271,358 +550,79 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__11,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_unknowns__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__12</t>
   </si>
   <si>
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -855,55 +855,55 @@
                   <c:v>0.03995157384987894</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.09061488673139159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1212121212121212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2025316455696203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.4444444444444444</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>0.6666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.09061488673139159</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1212121212121212</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2025316455696203</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2692307692307692</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.3181818181818182</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2777777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,30 +1024,60 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$7</c:f>
+              <c:f>MultsDivs!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$7</c:f>
+              <c:f>MultsDivs!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.0855614973262032</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.07042253521126761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06451612903225806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0547945205479452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.07407407407407407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1081081081081081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04545454545454546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,40 +1260,40 @@
                   <c:v>0.03733602421796166</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.0575139146567718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07848837209302326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1127450980392157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1304347826086956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1851851851851852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3529411764705883</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.3333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0575139146567718</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.07848837209302326</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1127450980392157</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1176470588235294</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1304347826086956</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1851851851851852</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3529411764705883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,10 +1414,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$18</c:f>
+              <c:f>Decimals!$C$4:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1426,16 +1456,37 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$18</c:f>
+              <c:f>Decimals!$D$4:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.04180064308681672</c:v>
                 </c:pt>
@@ -1443,37 +1494,58 @@
                   <c:v>0.04674796747967479</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.04657534246575343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06719367588932806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09580838323353294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1411764705882353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1951219512195122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2580645161290323</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.3043478260869565</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>0.4285714285714285</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04657534246575343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,37 +1725,37 @@
                   <c:v>0.04392386530014641</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08695652173913043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1368421052631579</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1923076923076923</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08695652173913043</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09090909090909091</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,43 +1941,43 @@
                   <c:v>0.1146496815286624</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2325581395348837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2352941176470588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.3333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>0.3333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1466666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2325581395348837</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.28</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2352941176470588</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0.3269107280291775</v>
+        <v>0.321618646808052</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2566,13 +2638,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.4</v>
+        <v>0.09061488673139159</v>
       </c>
       <c r="E5" s="1">
         <v>0.03707414829659319</v>
@@ -2581,7 +2653,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>0.4988047996976566</v>
+        <v>0.333075929518646</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2589,13 +2661,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.4444444444444444</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="E6" s="1">
         <v>0.03707414829659319</v>
@@ -2604,7 +2676,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>0.629097222222222</v>
+        <v>0.3715018454537497</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2612,13 +2684,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.5</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="E7" s="1">
         <v>0.03707414829659319</v>
@@ -2627,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>0.6497916666666665</v>
+        <v>0.3713789536500229</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2635,13 +2707,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.5714285714285714</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="E8" s="1">
         <v>0.03707414829659319</v>
@@ -2650,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>0.6764583333333334</v>
+        <v>0.3899057043156374</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2658,13 +2730,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.6666666666666666</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E9" s="1">
         <v>0.03707414829659319</v>
@@ -2673,7 +2745,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="1">
-        <v>0.8093749999999996</v>
+        <v>0.4119952675959178</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2681,13 +2753,13 @@
         <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="1">
         <v>0.03707414829659319</v>
@@ -2696,7 +2768,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="1">
-        <v>0.8885416666666666</v>
+        <v>0.3873629804222224</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2704,13 +2776,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E11" s="1">
         <v>0.03707414829659319</v>
@@ -2719,7 +2791,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0.4491070749414385</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2727,13 +2799,13 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E12" s="1">
         <v>0.03707414829659319</v>
@@ -2742,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0.4209290724765634</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2750,13 +2822,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E13" s="1">
         <v>0.03707414829659319</v>
@@ -2765,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0.3678343414678495</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2773,13 +2845,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.09061488673139159</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E14" s="1">
         <v>0.03707414829659319</v>
@@ -2788,7 +2860,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="1">
-        <v>0.3437276388145972</v>
+        <v>0.5282014141702749</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2796,13 +2868,13 @@
         <v>33</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1212121212121212</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="1">
         <v>0.03707414829659319</v>
@@ -2811,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="1">
-        <v>0.3810169345166511</v>
+        <v>0.550537595337645</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2819,13 +2891,13 @@
         <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.1714285714285714</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E16" s="1">
         <v>0.03707414829659319</v>
@@ -2834,7 +2906,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="1">
-        <v>0.3980039523967414</v>
+        <v>0.5779323969145227</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2842,13 +2914,13 @@
         <v>37</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.2025316455696203</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E17" s="1">
         <v>0.03707414829659319</v>
@@ -2857,7 +2929,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="1">
-        <v>0.4155132988373895</v>
+        <v>0.7150142575015547</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2865,13 +2937,13 @@
         <v>39</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.2692307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E18" s="1">
         <v>0.03707414829659319</v>
@@ -2880,7 +2952,7 @@
         <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>0.4398495346627511</v>
+        <v>0.7722011605344348</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2888,13 +2960,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>0.03707414829659319</v>
@@ -2903,7 +2975,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="1">
-        <v>0.4342175620841796</v>
+        <v>0.8695291442378797</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2911,13 +2983,13 @@
         <v>43</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>0.3181818181818182</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>0.03707414829659319</v>
@@ -2926,7 +2998,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="1">
-        <v>0.5344376362371718</v>
+        <v>0.8695291442378797</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2934,13 +3006,13 @@
         <v>45</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>0.2777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>0.03707414829659319</v>
@@ -2949,7 +3021,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="1">
-        <v>0.5248931623931625</v>
+        <v>0.8695291442378797</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2957,13 +3029,13 @@
         <v>47</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.04180064308681672</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="E22" s="1">
         <v>0.03707414829659319</v>
@@ -2972,7 +3044,7 @@
         <v>48</v>
       </c>
       <c r="G22" s="1">
-        <v>0.3144274852116883</v>
+        <v>0.2419662405353665</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2980,13 +3052,13 @@
         <v>49</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.04674796747967479</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="E23" s="1">
         <v>0.03707414829659319</v>
@@ -2995,7 +3067,7 @@
         <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>0.3217434272512774</v>
+        <v>0.2212826196204904</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3003,13 +3075,13 @@
         <v>51</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.3043478260869565</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E24" s="1">
         <v>0.03707414829659319</v>
@@ -3018,7 +3090,7 @@
         <v>52</v>
       </c>
       <c r="G24" s="1">
-        <v>0.5156930853944544</v>
+        <v>0.2724372774149929</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3026,13 +3098,13 @@
         <v>53</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.4</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="E25" s="1">
         <v>0.03707414829659319</v>
@@ -3041,7 +3113,7 @@
         <v>54</v>
       </c>
       <c r="G25" s="1">
-        <v>0.5497656591774236</v>
+        <v>0.3374526033920668</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3049,13 +3121,13 @@
         <v>55</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.3</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E26" s="1">
         <v>0.03707414829659319</v>
@@ -3064,7 +3136,7 @@
         <v>56</v>
       </c>
       <c r="G26" s="1">
-        <v>0.5207983193277312</v>
+        <v>0.3576579014815783</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3072,13 +3144,13 @@
         <v>57</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.4285714285714285</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="E27" s="1">
         <v>0.03707414829659319</v>
@@ -3087,7 +3159,7 @@
         <v>58</v>
       </c>
       <c r="G27" s="1">
-        <v>0.5773389355742297</v>
+        <v>0.3729117045038731</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3095,13 +3167,13 @@
         <v>59</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.5</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E28" s="1">
         <v>0.03707414829659319</v>
@@ -3110,7 +3182,7 @@
         <v>60</v>
       </c>
       <c r="G28" s="1">
-        <v>0.6603174603174603</v>
+        <v>-0.1857146284906346</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3118,96 +3190,88 @@
         <v>61</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.6603174603174603</v>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.4035897435897437</v>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.4512820512820514</v>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.4512820512820514</v>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -3216,47 +3280,43 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.341025641025641</v>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04657534246575343</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.3172290071630268</v>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -3274,128 +3334,140 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.03711133400200602</v>
       </c>
       <c r="E36" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.320936150635991</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.03733602421796166</v>
       </c>
       <c r="E37" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
+      <c r="F37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.3210143639048464</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.0575139146567718</v>
       </c>
       <c r="E38" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.2444278107441271</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.07848837209302326</v>
       </c>
       <c r="E39" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.2772563690742006</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="E40" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
+      <c r="F40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.3081988844449253</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E41" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
+      <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.2830217223623777</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3403,905 +3475,927 @@
         <v>80</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E42" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
+      <c r="F42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.3113207854407171</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="E43" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
+      <c r="F43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.2851248229441331</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="E44" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>10</v>
+      <c r="F44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.273418316841636</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.06719367588932806</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E45" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G45" s="1">
-        <v>0.3245940251729196</v>
+        <v>0.2484547714214886</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0.09580838323353294</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E46" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G46" s="1">
-        <v>0.3566132400948622</v>
+        <v>0.2447994381041614</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="E47" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1">
-        <v>0.3653429466171083</v>
+        <v>0.2135685649731611</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0.1411764705882353</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G48" s="1">
-        <v>0.4297566320791481</v>
+        <v>0.8206974812650867</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0.1692307692307692</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G49" s="1">
-        <v>0.4509211651196874</v>
+        <v>0.8206974812650867</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.1951219512195122</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="E50" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G50" s="1">
-        <v>0.4521084695617535</v>
+        <v>0.3121765025630983</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.2580645161290323</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="E51" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G51" s="1">
-        <v>0.4882205747199181</v>
+        <v>0.3021682990468011</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.03711133400200602</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="E52" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G52" s="1">
-        <v>0.3209361506359911</v>
+        <v>0.2027800126773106</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.03733602421796166</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="E53" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G53" s="1">
-        <v>0.3210143639048466</v>
+        <v>0.3343219710631591</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.28</v>
       </c>
       <c r="E54" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1">
-        <v>0.4599489795918366</v>
+        <v>0.3575647880960208</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.2</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E55" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G55" s="1">
-        <v>0.444047619047619</v>
+        <v>0.3331554143777802</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E56" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>0.2900193348710657</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E57" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0.485245616788029</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.0575139146567718</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E58" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G58" s="1">
-        <v>0.3212767634770371</v>
+        <v>0.3427184546613399</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.07848837209302326</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E59" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G59" s="1">
-        <v>0.3272284121805865</v>
+        <v>0.3427184546613399</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.1127450980392157</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E60" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G60" s="1">
-        <v>0.338775099420669</v>
+        <v>0.3427184546613399</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.1176470588235294</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E61" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G61" s="1">
-        <v>0.3426358130199326</v>
+        <v>0.3427184546613399</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.1304347826086956</v>
+        <v>0.5</v>
       </c>
       <c r="E62" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G62" s="1">
-        <v>0.3663410945429622</v>
+        <v>0.5583375289942583</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.1851851851851852</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G63" s="1">
-        <v>0.3971544783390782</v>
+        <v>0.8206974812650867</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0.2285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G64" s="1">
-        <v>0.4088676410508182</v>
+        <v>0.8206974812650867</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.3529411764705883</v>
+        <v>0.04180064308681672</v>
       </c>
       <c r="E65" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G65" s="1">
-        <v>0.4160772426343358</v>
+        <v>0.1773394233671535</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0855614973262032</v>
+        <v>0.04674796747967479</v>
       </c>
       <c r="E66" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G66" s="1">
-        <v>0.390574753894587</v>
+        <v>0.2114198936272075</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.07042253521126761</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="E67" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G67" s="1">
-        <v>0.3800723083837276</v>
+        <v>0.1704159161703694</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="E68" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
+      <c r="F68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.1838720356798838</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="E69" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
+      <c r="F69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.2320033308715503</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E70" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>10</v>
+      <c r="F70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.241071106274203</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="E71" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
+      <c r="F71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.3149295694541848</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.06451612903225806</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="E72" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G72" s="1">
-        <v>0.4226719616311113</v>
+        <v>0.3335734420932355</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.0547945205479452</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E73" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G73" s="1">
-        <v>0.4845188472354198</v>
+        <v>0.3270954346101825</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.07407407407407407</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="E74" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G74" s="1">
-        <v>0.500814458356334</v>
+        <v>0.3654228299996573</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.1081081081081081</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E75" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G75" s="1">
-        <v>0.5142970269887043</v>
+        <v>0.3902477206727895</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.04545454545454546</v>
+        <v>0.4</v>
       </c>
       <c r="E76" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G76" s="1">
-        <v>0.03569640683978251</v>
+        <v>0.4214825307131802</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E77" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>10</v>
+      <c r="F77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.3752811663279045</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E78" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
-        <v>10</v>
+      <c r="F78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.4368426685978554</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E79" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>10</v>
+      <c r="F79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.5199327478556193</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.5</v>
       </c>
       <c r="E80" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
-        <v>10</v>
+      <c r="F80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.5199327478556193</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.04392386530014641</v>
+        <v>0.4</v>
       </c>
       <c r="E81" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G81" s="1">
-        <v>0.3615690501340231</v>
+        <v>0.2082629433919928</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -4313,309 +4407,287 @@
         <v>0.03707414829659319</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G82" s="1">
-        <v>0.6845238095238095</v>
+        <v>0.2758037177275921</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E83" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G83" s="1">
-        <v>1</v>
+        <v>0.2758037177275921</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E84" s="1">
         <v>0.03707414829659319</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G84" s="1">
-        <v>1</v>
+        <v>0.1097617417536873</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.1368421052631579</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.3940410787375534</v>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.1923076923076923</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0.4272579800408955</v>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.324096124818631</v>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G88" s="1">
-        <v>0.3599751882104822</v>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
       </c>
       <c r="D89" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G89" s="1">
-        <v>0.3660453272217977</v>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
       </c>
       <c r="D90" s="1">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G90" s="1">
-        <v>0.3847899159663865</v>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
       </c>
       <c r="D91" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E91" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.4976470588235294</v>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
       </c>
       <c r="D92" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.5892857142857144</v>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.06532663316582915</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0.3296572278535869</v>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.1146496815286624</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G94" s="1">
-        <v>0.3510573922007674</v>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.03707414829659319</v>
       </c>
       <c r="E95" s="1">
         <v>0.03707414829659319</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.5370370370370372</v>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4623,13 +4695,13 @@
         <v>177</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.04392386530014641</v>
       </c>
       <c r="E96" s="1">
         <v>0.03707414829659319</v>
@@ -4638,7 +4710,7 @@
         <v>178</v>
       </c>
       <c r="G96" s="1">
-        <v>0.5370370370370372</v>
+        <v>0.3416944088727368</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4646,13 +4718,13 @@
         <v>179</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.5</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="E97" s="1">
         <v>0.03707414829659319</v>
@@ -4661,7 +4733,7 @@
         <v>180</v>
       </c>
       <c r="G97" s="1">
-        <v>0.7407407407407407</v>
+        <v>0.2169974700774742</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4669,13 +4741,13 @@
         <v>181</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E98" s="1">
         <v>0.03707414829659319</v>
@@ -4684,7 +4756,7 @@
         <v>182</v>
       </c>
       <c r="G98" s="1">
-        <v>1</v>
+        <v>0.2495007942682781</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4692,13 +4764,13 @@
         <v>183</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>1</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E99" s="1">
         <v>0.03707414829659319</v>
@@ -4707,7 +4779,7 @@
         <v>184</v>
       </c>
       <c r="G99" s="1">
-        <v>1</v>
+        <v>0.104267356084888</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4715,13 +4787,13 @@
         <v>185</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.1466666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E100" s="1">
         <v>0.03707414829659319</v>
@@ -4730,7 +4802,7 @@
         <v>186</v>
       </c>
       <c r="G100" s="1">
-        <v>0.3520038760204515</v>
+        <v>0.143423733581847</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4738,13 +4810,13 @@
         <v>187</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.2325581395348837</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E101" s="1">
         <v>0.03707414829659319</v>
@@ -4753,7 +4825,7 @@
         <v>188</v>
       </c>
       <c r="G101" s="1">
-        <v>0.458609994472119</v>
+        <v>0.144566289759977</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4761,13 +4833,13 @@
         <v>189</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0.28</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E102" s="1">
         <v>0.03707414829659319</v>
@@ -4776,7 +4848,7 @@
         <v>190</v>
       </c>
       <c r="G102" s="1">
-        <v>0.485839436431326</v>
+        <v>0.1672832529397951</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4784,13 +4856,13 @@
         <v>191</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0.2352941176470588</v>
+        <v>0.2</v>
       </c>
       <c r="E103" s="1">
         <v>0.03707414829659319</v>
@@ -4799,7 +4871,7 @@
         <v>192</v>
       </c>
       <c r="G103" s="1">
-        <v>0.4740091626942837</v>
+        <v>0.2893268233025246</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4807,13 +4879,13 @@
         <v>193</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
       </c>
       <c r="D104" s="1">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E104" s="1">
         <v>0.03707414829659319</v>
@@ -4822,7 +4894,7 @@
         <v>194</v>
       </c>
       <c r="G104" s="1">
-        <v>0.4729971988795517</v>
+        <v>0.3799547946126796</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4830,7 +4902,7 @@
         <v>195</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4845,7 +4917,7 @@
         <v>196</v>
       </c>
       <c r="G105" s="1">
-        <v>0.652941176470588</v>
+        <v>0.4809901420736898</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4853,13 +4925,13 @@
         <v>197</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
       </c>
       <c r="D106" s="1">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
         <v>0.03707414829659319</v>
@@ -4868,7 +4940,7 @@
         <v>198</v>
       </c>
       <c r="G106" s="1">
-        <v>0.5370370370370372</v>
+        <v>0.8206974812650867</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4876,13 +4948,13 @@
         <v>199</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
       </c>
       <c r="D107" s="1">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1">
         <v>0.03707414829659319</v>
@@ -4891,7 +4963,7 @@
         <v>200</v>
       </c>
       <c r="G107" s="1">
-        <v>0.5370370370370372</v>
+        <v>0.8206974812650867</v>
       </c>
     </row>
   </sheetData>
@@ -5047,19 +5119,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.4</v>
+        <v>0.09061488673139159</v>
       </c>
       <c r="E6" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F6" s="1">
-        <v>0.3629258517034069</v>
+        <v>0.0535407384347984</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5090,19 +5162,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4444444444444444</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="E7" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F7" s="1">
-        <v>0.4073702961478513</v>
+        <v>0.08413797291552802</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5133,19 +5205,19 @@
         <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.5</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="E8" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F8" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.1343544231319782</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5176,19 +5248,19 @@
         <v>19</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.5714285714285714</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="E9" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F9" s="1">
-        <v>0.5343544231319782</v>
+        <v>0.1654574972730271</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5219,19 +5291,19 @@
         <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.6666666666666666</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E10" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F10" s="1">
-        <v>0.6295925183700735</v>
+        <v>0.232156620934176</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5262,19 +5334,19 @@
         <v>23</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E11" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F11" s="1">
-        <v>0.7129258517034068</v>
+        <v>0.2129258517034068</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5305,19 +5377,19 @@
         <v>25</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E12" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F12" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.281107669885225</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5348,19 +5420,19 @@
         <v>27</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E13" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F13" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.2407036294811846</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5391,19 +5463,19 @@
         <v>29</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F14" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.3629258517034069</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -5434,19 +5506,19 @@
         <v>31</v>
       </c>
       <c r="B15" s="3">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.09061488673139159</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E15" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0535407384347984</v>
+        <v>0.4073702961478513</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -5477,19 +5549,19 @@
         <v>33</v>
       </c>
       <c r="B16" s="3">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.1212121212121212</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F16" s="1">
-        <v>0.08413797291552802</v>
+        <v>0.4629258517034068</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -5520,19 +5592,19 @@
         <v>35</v>
       </c>
       <c r="B17" s="3">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.1714285714285714</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E17" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F17" s="1">
-        <v>0.1343544231319782</v>
+        <v>0.5343544231319782</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -5563,19 +5635,19 @@
         <v>37</v>
       </c>
       <c r="B18" s="3">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.2025316455696203</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E18" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F18" s="1">
-        <v>0.1654574972730271</v>
+        <v>0.6295925183700735</v>
       </c>
       <c r="G18" s="1">
         <f>1/(POWER(B18,1.5))</f>
@@ -5606,19 +5678,19 @@
         <v>39</v>
       </c>
       <c r="B19" s="3">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>0.2692307692307692</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F19" s="1">
-        <v>0.232156620934176</v>
+        <v>0.7129258517034068</v>
       </c>
       <c r="G19" s="1">
         <f>1/(POWER(B19,1.5))</f>
@@ -5649,19 +5721,19 @@
         <v>41</v>
       </c>
       <c r="B20" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>17</v>
       </c>
       <c r="D20" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F20" s="1">
-        <v>0.2129258517034068</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G20" s="1">
         <f>1/(POWER(B20,1.5))</f>
@@ -5692,19 +5764,19 @@
         <v>43</v>
       </c>
       <c r="B21" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>18</v>
       </c>
       <c r="D21" s="3">
-        <v>0.3181818181818182</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F21" s="1">
-        <v>0.281107669885225</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G21" s="1">
         <f>1/(POWER(B21,1.5))</f>
@@ -5735,19 +5807,19 @@
         <v>45</v>
       </c>
       <c r="B22" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>19</v>
       </c>
       <c r="D22" s="3">
-        <v>0.2777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F22" s="1">
-        <v>0.2407036294811846</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G22" s="1">
         <f>1/(POWER(B22,1.5))</f>
@@ -5781,7 +5853,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5838,7 +5910,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -5881,7 +5953,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -5919,6 +5991,221 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.02744198073566487</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0547945205479452</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01772037225135201</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.03699992577748088</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.07103395981151492</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.008380397157952267</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -5987,7 +6274,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -6030,7 +6317,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -6073,22 +6360,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3">
-        <v>9</v>
+        <v>539</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.0575139146567718</v>
       </c>
       <c r="E6" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.02043976636017861</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6116,22 +6403,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>344</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2</v>
+        <v>0.07848837209302326</v>
       </c>
       <c r="E7" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1629258517034068</v>
+        <v>0.04141422379643007</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6159,22 +6446,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="E8" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F8" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.07567094974262251</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6202,22 +6489,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E9" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F9" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.08057291052693621</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6245,22 +6532,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3">
-        <v>539</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.0575139146567718</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E10" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F10" s="1">
-        <v>0.02043976636017861</v>
+        <v>0.09336063431210245</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6288,22 +6575,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.07848837209302326</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="E11" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F11" s="1">
-        <v>0.04141422379643007</v>
+        <v>0.148111036888592</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6331,22 +6618,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1127450980392157</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="E12" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F12" s="1">
-        <v>0.07567094974262251</v>
+        <v>0.1914972802748354</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6374,22 +6661,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.1176470588235294</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E13" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F13" s="1">
-        <v>0.08057291052693621</v>
+        <v>0.3158670281739951</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6417,22 +6704,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.1304347826086956</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F14" s="1">
-        <v>0.09336063431210245</v>
+        <v>0.2962591850367401</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6460,22 +6747,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.1851851851851852</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F15" s="1">
-        <v>0.148111036888592</v>
+        <v>0.1629258517034068</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -6503,22 +6790,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.2285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F16" s="1">
-        <v>0.1914972802748354</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -6546,22 +6833,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B17" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.3529411764705883</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F17" s="1">
-        <v>0.3158670281739951</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -6595,7 +6882,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6652,7 +6939,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -6695,7 +6982,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -6738,22 +7025,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.3043478260869565</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="E6" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2672736777903634</v>
+        <v>0.009501194169160239</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6781,22 +7068,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="E7" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F7" s="1">
-        <v>0.3629258517034069</v>
+        <v>0.03011952759273488</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6824,22 +7111,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.3</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="E8" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F8" s="1">
-        <v>0.2629258517034068</v>
+        <v>0.05873423493693975</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6867,22 +7154,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.4285714285714285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E9" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F9" s="1">
-        <v>0.3914972802748354</v>
+        <v>0.07403696281451791</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6910,22 +7197,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B10" s="3">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.5</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="E10" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F10" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.1041023222916421</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6953,22 +7240,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.5</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="E11" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F11" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.132156620934176</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6996,22 +7283,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.4</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E12" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F12" s="1">
-        <v>0.3629258517034069</v>
+        <v>0.158047802922919</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -7039,22 +7326,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.5</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="E13" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F13" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.2209903678324391</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -7082,22 +7369,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.5</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E14" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F14" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.2672736777903634</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -7125,22 +7412,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="E15" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F15" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.3629258517034069</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -7168,22 +7455,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B16" s="3">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.04657534246575343</v>
+        <v>0.3</v>
       </c>
       <c r="E16" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F16" s="1">
-        <v>0.009501194169160239</v>
+        <v>0.2629258517034068</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -7206,6 +7493,307 @@
       </c>
       <c r="L16" s="1">
         <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.3914972802748354</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.4629258517034068</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.4629258517034068</v>
+      </c>
+      <c r="G19" s="1">
+        <f>1/(POWER(B19,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K19" s="1">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>MIN(K19,1-D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.3629258517034069</v>
+      </c>
+      <c r="G20" s="1">
+        <f>1/(POWER(B20,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>SQRT((D20-POWER(10,-4))*B20*((1-D20+POWER(10,-4))*B20))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K20" s="1">
+        <f>I20*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f>MIN(K20,1-D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.4629258517034068</v>
+      </c>
+      <c r="G21" s="1">
+        <f>1/(POWER(B21,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>SQRT((D21-POWER(10,-4))*B21*((1-D21+POWER(10,-4))*B21))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>G21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f>MIN(K21,1-D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.4629258517034068</v>
+      </c>
+      <c r="G22" s="1">
+        <f>1/(POWER(B22,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>SQRT((D22-POWER(10,-4))*B22*((1-D22+POWER(10,-4))*B22))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>G22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K22" s="1">
+        <f>I22*J22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f>MIN(K22,1-D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.03707414829659319</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.2962591850367401</v>
+      </c>
+      <c r="G23" s="1">
+        <f>1/(POWER(B23,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>SQRT((D23-POWER(10,-4))*B23*((1-D23+POWER(10,-4))*B23))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f>G23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K23" s="1">
+        <f>I23*J23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f>MIN(K23,1-D23)</f>
         <v>0</v>
       </c>
     </row>
@@ -7274,7 +7862,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -7317,7 +7905,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -7360,22 +7948,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.5</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="E6" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F6" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.09976795696656471</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -7403,22 +7991,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E7" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F7" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.1552335440110991</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -7446,22 +8034,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E8" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F8" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.04988237344253724</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -7489,22 +8077,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B9" s="3">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1368421052631579</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E9" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F9" s="1">
-        <v>0.09976795696656471</v>
+        <v>0.1057829945605497</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -7532,22 +8120,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="B10" s="3">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1923076923076923</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E10" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F10" s="1">
-        <v>0.1552335440110991</v>
+        <v>0.05383494261249772</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -7575,22 +8163,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B11" s="3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.08695652173913043</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E11" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F11" s="1">
-        <v>0.04988237344253724</v>
+        <v>0.1057829945605497</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -7618,22 +8206,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="B12" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1057829945605497</v>
+        <v>0.1629258517034068</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -7661,22 +8249,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B13" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.09090909090909091</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E13" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F13" s="1">
-        <v>0.05383494261249772</v>
+        <v>0.2962591850367401</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -7704,22 +8292,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B14" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F14" s="1">
-        <v>0.1057829945605497</v>
+        <v>0.4629258517034068</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -7747,22 +8335,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F15" s="1">
-        <v>0.1629258517034068</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -7790,22 +8378,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F16" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -7896,7 +8484,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -7939,7 +8527,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -7982,22 +8570,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="E6" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.1095925183700735</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -8025,22 +8613,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="E7" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.1954839912382905</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -8068,22 +8656,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="E8" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F8" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.2429258517034068</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -8111,22 +8699,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E9" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F9" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.1982199693504656</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -8154,22 +8742,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F10" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.2129258517034068</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -8197,22 +8785,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1466666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F11" s="1">
-        <v>0.1095925183700735</v>
+        <v>0.4629258517034068</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -8240,22 +8828,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.2325581395348837</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1954839912382905</v>
+        <v>0.2962591850367401</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -8283,22 +8871,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B13" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.28</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E13" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F13" s="1">
-        <v>0.2429258517034068</v>
+        <v>0.2962591850367401</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -8326,22 +8914,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.2352941176470588</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F14" s="1">
-        <v>0.1982199693504656</v>
+        <v>0.2962591850367401</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -8369,22 +8957,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="B15" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E15" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F15" s="1">
-        <v>0.2129258517034068</v>
+        <v>0.2962591850367401</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -8412,10 +9000,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
@@ -8455,22 +9043,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F17" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -8498,22 +9086,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>0.03707414829659319</v>
       </c>
       <c r="F18" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.9629258517034068</v>
       </c>
       <c r="G18" s="1">
         <f>1/(POWER(B18,1.5))</f>
